--- a/data/trans_orig/P1405-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Edad-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4908</v>
+        <v>4906</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002150297526290834</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01080766909293378</v>
+        <v>0.0108023618519063</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -766,16 +766,16 @@
         <v>981</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10626</v>
+        <v>9216</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009021166788203182</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002280070839595105</v>
+        <v>0.002280949127581138</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02469810000808356</v>
+        <v>0.02142220013918431</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -784,19 +784,19 @@
         <v>4858</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1915</v>
+        <v>1905</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10653</v>
+        <v>10682</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00549282704125846</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002165116175745152</v>
+        <v>0.002154369308634866</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01204587166106352</v>
+        <v>0.01207864183034005</v>
       </c>
     </row>
     <row r="5">
@@ -813,7 +813,7 @@
         <v>453169</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>449238</v>
+        <v>449240</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>454146</v>
@@ -822,7 +822,7 @@
         <v>0.9978497024737092</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9891923309070663</v>
+        <v>0.9891976381480937</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>426349</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>419604</v>
+        <v>421014</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>429249</v>
@@ -843,10 +843,10 @@
         <v>0.9909788332117968</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9753018999919165</v>
+        <v>0.9785777998608164</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.997719929160405</v>
+        <v>0.9977190508724189</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>862</v>
@@ -855,19 +855,19 @@
         <v>879518</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>873723</v>
+        <v>873694</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>882461</v>
+        <v>882471</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9945071729587416</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9879541283389365</v>
+        <v>0.98792135816966</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9978348838242548</v>
+        <v>0.9978456306913651</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>6720</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2758</v>
+        <v>2421</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15027</v>
+        <v>14506</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009780968733049478</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004014316474378526</v>
+        <v>0.003523790508607234</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02187023432455902</v>
+        <v>0.02111212608902359</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -980,19 +980,19 @@
         <v>9212</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3990</v>
+        <v>4022</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17635</v>
+        <v>19369</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01509489462741625</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006538094016478734</v>
+        <v>0.006590874149718281</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02889746018597669</v>
+        <v>0.03173860229855782</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -1001,19 +1001,19 @@
         <v>15932</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9015</v>
+        <v>9214</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27872</v>
+        <v>26198</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01228058016728348</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006948680845477663</v>
+        <v>0.007101894195371593</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02148424475663344</v>
+        <v>0.02019373303364277</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>680367</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>672060</v>
+        <v>672581</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>684329</v>
+        <v>684666</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9902190312669505</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.978129765675441</v>
+        <v>0.9788878739109764</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9959856835256214</v>
+        <v>0.9964762094913937</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>563</v>
@@ -1051,19 +1051,19 @@
         <v>601043</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>592620</v>
+        <v>590886</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>606265</v>
+        <v>606233</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9849051053725838</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9711025398140241</v>
+        <v>0.9682613977014416</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9934619059835214</v>
+        <v>0.9934091258502816</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1224</v>
@@ -1072,19 +1072,19 @@
         <v>1281410</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1269470</v>
+        <v>1271144</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1288327</v>
+        <v>1288128</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9877194198327165</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9785157552433663</v>
+        <v>0.9798062669663574</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9930513191545223</v>
+        <v>0.9928981058046285</v>
       </c>
     </row>
     <row r="9">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5830</v>
+        <v>4729</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001509933433200591</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008549939531623524</v>
+        <v>0.006935736681134018</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1197,19 +1197,19 @@
         <v>4530</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1008</v>
+        <v>993</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12299</v>
+        <v>10395</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006384016370321891</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001421267422444978</v>
+        <v>0.001399206503097375</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0173323720114598</v>
+        <v>0.01464973484163002</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1218,19 +1218,19 @@
         <v>5560</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1953</v>
+        <v>1969</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13166</v>
+        <v>13757</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003995510564595531</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001403600082793448</v>
+        <v>0.001414866292095998</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009462368850516994</v>
+        <v>0.009887103748099734</v>
       </c>
     </row>
     <row r="11">
@@ -1247,7 +1247,7 @@
         <v>680833</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>676033</v>
+        <v>677134</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>681863</v>
@@ -1256,7 +1256,7 @@
         <v>0.9984900665667994</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9914500604683766</v>
+        <v>0.9930642633188652</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1268,19 +1268,19 @@
         <v>705044</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>697275</v>
+        <v>699179</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>708566</v>
+        <v>708581</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9936159836296781</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9826676279885402</v>
+        <v>0.98535026515837</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.998578732577555</v>
+        <v>0.9986007934969026</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1312</v>
@@ -1289,19 +1289,19 @@
         <v>1385877</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1378271</v>
+        <v>1377680</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1389484</v>
+        <v>1389468</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9960044894354044</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.990537631149483</v>
+        <v>0.9901128962519004</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9985963999172066</v>
+        <v>0.9985851337079039</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>5315</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2102</v>
+        <v>2092</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11970</v>
+        <v>11817</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008647286734108237</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003420469547230296</v>
+        <v>0.003404235187133094</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01947594098547734</v>
+        <v>0.01922582625878083</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1414,19 +1414,19 @@
         <v>12670</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6474</v>
+        <v>6225</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24181</v>
+        <v>22569</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02062670976670776</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01053972973898198</v>
+        <v>0.0101344933596629</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03936611139912576</v>
+        <v>0.03674106395055644</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1435,19 +1435,19 @@
         <v>17985</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10075</v>
+        <v>10537</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27353</v>
+        <v>28641</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01463527852283798</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008198578198633264</v>
+        <v>0.008574780639523759</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02225849993231398</v>
+        <v>0.02330681862206898</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>609302</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>602647</v>
+        <v>602800</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>612515</v>
+        <v>612525</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9913527132658918</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9805240590145238</v>
+        <v>0.9807741737412193</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9965795304527697</v>
+        <v>0.9965957648128669</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>527</v>
@@ -1485,19 +1485,19 @@
         <v>601594</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>590083</v>
+        <v>591695</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>607790</v>
+        <v>608039</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9793732902332922</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9606338886008743</v>
+        <v>0.963258936049443</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9894602702610178</v>
+        <v>0.9898655066403371</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1070</v>
@@ -1506,19 +1506,19 @@
         <v>1210895</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1201527</v>
+        <v>1200239</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1218805</v>
+        <v>1218343</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.985364721477162</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9777415000676862</v>
+        <v>0.976693181377931</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9918014218013688</v>
+        <v>0.9914252193604762</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>4292</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1070</v>
+        <v>1126</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10674</v>
+        <v>11877</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009995598430412134</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002492010576125206</v>
+        <v>0.002620935888962252</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02485558222233406</v>
+        <v>0.02765697392873694</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1631,19 +1631,19 @@
         <v>11030</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5188</v>
+        <v>5278</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19986</v>
+        <v>19508</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02463053323734756</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0115844392067055</v>
+        <v>0.01178583582466863</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04463210952997978</v>
+        <v>0.04356325603468332</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1652,19 +1652,19 @@
         <v>15322</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9027</v>
+        <v>8603</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24297</v>
+        <v>25335</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01746630746031415</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01028999260887999</v>
+        <v>0.009807261490425845</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02769716317257283</v>
+        <v>0.02888123034700806</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>425137</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>418755</v>
+        <v>417552</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>428359</v>
+        <v>428303</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9900044015695879</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9751444177776657</v>
+        <v>0.9723430260712632</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9975079894238749</v>
+        <v>0.9973790641110377</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>396</v>
@@ -1702,19 +1702,19 @@
         <v>436770</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>427814</v>
+        <v>428292</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>442612</v>
+        <v>442522</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9753694667626525</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9553678904700202</v>
+        <v>0.9564367439653162</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9884155607932945</v>
+        <v>0.9882141641753311</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>785</v>
@@ -1723,19 +1723,19 @@
         <v>861907</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>852932</v>
+        <v>851894</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>868202</v>
+        <v>868626</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9825336925396858</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9723028368274274</v>
+        <v>0.971118769652992</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.98971000739112</v>
+        <v>0.9901927385095749</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>5104</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12165</v>
+        <v>13201</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01647489627817012</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003476460747178967</v>
+        <v>0.003480792857807782</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03926994229290238</v>
+        <v>0.04261344542678543</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1848,19 +1848,19 @@
         <v>4620</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1031</v>
+        <v>984</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11357</v>
+        <v>11335</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01305042278540903</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002912897333822529</v>
+        <v>0.002779895570984173</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03208346859144099</v>
+        <v>0.03202033987032692</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1869,19 +1869,19 @@
         <v>9723</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4632</v>
+        <v>4086</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19424</v>
+        <v>18955</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01464861960057642</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006977783173722997</v>
+        <v>0.00615551746864903</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02926284174417225</v>
+        <v>0.02855590418981156</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>304682</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>297621</v>
+        <v>296585</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>308709</v>
+        <v>308708</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9835251037218299</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9607300577070976</v>
+        <v>0.9573865545732151</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9965235392528211</v>
+        <v>0.9965192071421922</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>340</v>
@@ -1919,19 +1919,19 @@
         <v>349376</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>342639</v>
+        <v>342661</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>352965</v>
+        <v>353012</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.986949577214591</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9679165314085588</v>
+        <v>0.9679796601296728</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9970871026661775</v>
+        <v>0.9972201044290159</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>618</v>
@@ -1940,19 +1940,19 @@
         <v>654059</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>644358</v>
+        <v>644827</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>659150</v>
+        <v>659696</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9853513803994236</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9707371582558284</v>
+        <v>0.9714440958101886</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9930222168262771</v>
+        <v>0.9938444825313509</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>5328</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1185</v>
+        <v>1126</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13436</v>
+        <v>14159</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02132352662618173</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004741367211851658</v>
+        <v>0.00450575466157063</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05377644974034087</v>
+        <v>0.05666991424646427</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -2065,19 +2065,19 @@
         <v>16787</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10012</v>
+        <v>9514</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26013</v>
+        <v>26328</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04328868370751952</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02581664910770551</v>
+        <v>0.02453264912817929</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06707831361402633</v>
+        <v>0.06789044680093445</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -2086,19 +2086,19 @@
         <v>22115</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14331</v>
+        <v>14340</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34113</v>
+        <v>34369</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03468202102502187</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02247438304237867</v>
+        <v>0.02248852746482172</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05349853544751065</v>
+        <v>0.05389962402943543</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>244523</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>236415</v>
+        <v>235692</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>248666</v>
+        <v>248725</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9786764733738182</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.946223550259659</v>
+        <v>0.9433300857535356</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9952586327881483</v>
+        <v>0.9954942453384295</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>334</v>
@@ -2136,19 +2136,19 @@
         <v>371009</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>361783</v>
+        <v>361468</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>377784</v>
+        <v>378282</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9567113162924805</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9329216863859736</v>
+        <v>0.9321095531990652</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9741833508922945</v>
+        <v>0.9754673508718206</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>552</v>
@@ -2157,19 +2157,19 @@
         <v>615532</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>603534</v>
+        <v>603278</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>623316</v>
+        <v>623307</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9653179789749782</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9465014645524888</v>
+        <v>0.9461003759705643</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9775256169576213</v>
+        <v>0.9775114725351782</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>28765</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18645</v>
+        <v>18743</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41686</v>
+        <v>42817</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008394197453167985</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005441105951424254</v>
+        <v>0.005469459392987229</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01216488790375713</v>
+        <v>0.01249473647692724</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -2282,19 +2282,19 @@
         <v>62730</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>47922</v>
+        <v>47257</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>81921</v>
+        <v>80005</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01765084957858858</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01348430013297895</v>
+        <v>0.0132971126762563</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02305090432236107</v>
+        <v>0.02251166741664101</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>81</v>
@@ -2303,19 +2303,19 @@
         <v>91495</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>72767</v>
+        <v>73711</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>112180</v>
+        <v>112925</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01310681750149702</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01042400065680382</v>
+        <v>0.01055932974668654</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01607000785567564</v>
+        <v>0.01617676215914926</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>3398014</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3385093</v>
+        <v>3383962</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3408134</v>
+        <v>3408036</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9916058025468321</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.987835112096243</v>
+        <v>0.9875052635230729</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9945588940485758</v>
+        <v>0.994530540607013</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3239</v>
@@ -2353,19 +2353,19 @@
         <v>3491186</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3471995</v>
+        <v>3473911</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3505994</v>
+        <v>3506659</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9823491504214115</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.976949095677639</v>
+        <v>0.9774883325833587</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9865156998670211</v>
+        <v>0.9867028873237437</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6423</v>
@@ -2374,19 +2374,19 @@
         <v>6889199</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6868514</v>
+        <v>6867769</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6907927</v>
+        <v>6906983</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.986893182498503</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9839299921443242</v>
+        <v>0.983823237840851</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9895759993431962</v>
+        <v>0.9894406702533135</v>
       </c>
     </row>
     <row r="27">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8502</v>
+        <v>8338</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00562364827041546</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02026985287315369</v>
+        <v>0.01987862159024355</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2742,19 +2742,19 @@
         <v>3026</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8154</v>
+        <v>8061</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007645725820223148</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002511804771040374</v>
+        <v>0.002508076024793449</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0206048949796739</v>
+        <v>0.02036907990304373</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -2763,19 +2763,19 @@
         <v>5385</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2028</v>
+        <v>2012</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12364</v>
+        <v>12026</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006605284231922644</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002487764983608938</v>
+        <v>0.002468512265942542</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01516644028195093</v>
+        <v>0.01475163413349134</v>
       </c>
     </row>
     <row r="5">
@@ -2792,7 +2792,7 @@
         <v>417104</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>410961</v>
+        <v>411125</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -2801,7 +2801,7 @@
         <v>0.9943763517295845</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9797301471268464</v>
+        <v>0.9801213784097565</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2813,19 +2813,19 @@
         <v>392729</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>387601</v>
+        <v>387694</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>394761</v>
+        <v>394762</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9923542741797768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9793951050203261</v>
+        <v>0.9796309200969563</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9974881952289596</v>
+        <v>0.9974919239752066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>792</v>
@@ -2834,19 +2834,19 @@
         <v>809833</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>802854</v>
+        <v>803192</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>813190</v>
+        <v>813206</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9933947157680774</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9848335597180491</v>
+        <v>0.9852483658665088</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9975122350163911</v>
+        <v>0.9975314877340574</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>2981</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8024</v>
+        <v>7968</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005048383211466301</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001566253079171294</v>
+        <v>0.001571856744663414</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01358840470176108</v>
+        <v>0.0134938659273262</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2959,19 +2959,19 @@
         <v>3807</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>975</v>
+        <v>1006</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9359</v>
+        <v>10089</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006755035807192783</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001729603772838215</v>
+        <v>0.001785814749262068</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01660686067743476</v>
+        <v>0.01790352563537286</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -2980,19 +2980,19 @@
         <v>6788</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2941</v>
+        <v>2917</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14406</v>
+        <v>12816</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005881780091848049</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002548587557442988</v>
+        <v>0.002527959795112814</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01248348270206303</v>
+        <v>0.0111049298503527</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>587515</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>582472</v>
+        <v>582528</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>589571</v>
+        <v>589568</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9949516167885337</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.986411595298239</v>
+        <v>0.9865061340726738</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9984337469208286</v>
+        <v>0.9984281432553366</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>575</v>
@@ -3030,19 +3030,19 @@
         <v>559737</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>554185</v>
+        <v>553455</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>562569</v>
+        <v>562538</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9932449641928072</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9833931393225652</v>
+        <v>0.982096474364629</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9982703962271617</v>
+        <v>0.9982141852507379</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1139</v>
@@ -3051,19 +3051,19 @@
         <v>1147252</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1139634</v>
+        <v>1141224</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1151099</v>
+        <v>1151123</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.994118219908152</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9875165172979364</v>
+        <v>0.9888950701496478</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.997451412442557</v>
+        <v>0.9974720402048872</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>6544</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2669</v>
+        <v>2540</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13615</v>
+        <v>14273</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009780018883355399</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003988646798136382</v>
+        <v>0.003795768049471017</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02034809761001623</v>
+        <v>0.02133210556841532</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3176,19 +3176,19 @@
         <v>9586</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4795</v>
+        <v>4858</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16924</v>
+        <v>17321</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01449319053027705</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007249331198401829</v>
+        <v>0.007345883020975386</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02558797324728584</v>
+        <v>0.02618879728903</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -3197,19 +3197,19 @@
         <v>16129</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9748</v>
+        <v>9517</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27723</v>
+        <v>25718</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01212294782746309</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00732682774099625</v>
+        <v>0.007153090338324172</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02083666795749555</v>
+        <v>0.01932995705859117</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>662553</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>655482</v>
+        <v>654824</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>666428</v>
+        <v>666557</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9902199811166446</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9796519023899838</v>
+        <v>0.9786678944315849</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9960113532018636</v>
+        <v>0.9962042319505291</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>655</v>
@@ -3247,19 +3247,19 @@
         <v>651800</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>644462</v>
+        <v>644065</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>656591</v>
+        <v>656528</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9855068094697229</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9744120267527139</v>
+        <v>0.9738112027109698</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9927506688015982</v>
+        <v>0.9926541169790246</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1287</v>
@@ -3268,19 +3268,19 @@
         <v>1314354</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1302760</v>
+        <v>1304765</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1320735</v>
+        <v>1320966</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9878770521725369</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9791633320425044</v>
+        <v>0.9806700429414087</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9926731722590035</v>
+        <v>0.9928469096616758</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>6632</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2132</v>
+        <v>2198</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13194</v>
+        <v>13593</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0102652571800003</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003300437759038901</v>
+        <v>0.003402613363847448</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02042301164762074</v>
+        <v>0.02103994285699229</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -3393,19 +3393,19 @@
         <v>7789</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3151</v>
+        <v>3055</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15700</v>
+        <v>16055</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01199978036608108</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00485530715030454</v>
+        <v>0.004706546040696749</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0241886139521232</v>
+        <v>0.02473487925194234</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -3414,19 +3414,19 @@
         <v>14421</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7468</v>
+        <v>7932</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22752</v>
+        <v>24715</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01113454685789628</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005766051610531319</v>
+        <v>0.006124167205746748</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01756714151392054</v>
+        <v>0.0190831461191163</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>639416</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>632854</v>
+        <v>632455</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>643916</v>
+        <v>643850</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9897347428199997</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9795769883523789</v>
+        <v>0.9789600571430077</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9966995622409608</v>
+        <v>0.9965973866361525</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>595</v>
@@ -3464,19 +3464,19 @@
         <v>641288</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>633377</v>
+        <v>633022</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>645926</v>
+        <v>646022</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9880002196339189</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9758113860478764</v>
+        <v>0.9752651207480573</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9951446928496953</v>
+        <v>0.9952934539593031</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1171</v>
@@ -3485,19 +3485,19 @@
         <v>1280704</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1272373</v>
+        <v>1270410</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1287657</v>
+        <v>1287193</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9888654531421037</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9824328584860792</v>
+        <v>0.980916853880883</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9942339483894687</v>
+        <v>0.9938758327942532</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>4644</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11981</v>
+        <v>12595</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009717003074441635</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002383088300467189</v>
+        <v>0.00237837759176212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02506853194653444</v>
+        <v>0.02635344832757045</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -3610,19 +3610,19 @@
         <v>14248</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8567</v>
+        <v>8635</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23962</v>
+        <v>24519</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02867577923441723</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01724247823859815</v>
+        <v>0.01738051270717912</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04822726390977699</v>
+        <v>0.0493493142433399</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -3631,19 +3631,19 @@
         <v>18891</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11547</v>
+        <v>10485</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29693</v>
+        <v>28978</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01938049086584922</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01184588669396323</v>
+        <v>0.01075629416996822</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03046210316576476</v>
+        <v>0.02972792214870313</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>473274</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>465937</v>
+        <v>465323</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>476779</v>
+        <v>476781</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9902829969255583</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9749314680534653</v>
+        <v>0.9736465516724295</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9976169116995328</v>
+        <v>0.9976216224082379</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>420</v>
@@ -3681,19 +3681,19 @@
         <v>482601</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>472887</v>
+        <v>472330</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>488282</v>
+        <v>488214</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9713242207655828</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9517727360902229</v>
+        <v>0.9506506857566601</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9827575217614019</v>
+        <v>0.9826194872928209</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>841</v>
@@ -3702,19 +3702,19 @@
         <v>955876</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>945074</v>
+        <v>945789</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>963220</v>
+        <v>964282</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9806195091341507</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9695378968342353</v>
+        <v>0.9702720778512969</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.988154113306037</v>
+        <v>0.9892437058300317</v>
       </c>
     </row>
     <row r="18">
@@ -3819,19 +3819,19 @@
         <v>4011</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1020</v>
+        <v>981</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10063</v>
+        <v>10097</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01061713774532698</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002701041135704586</v>
+        <v>0.00259773530573062</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02663732337770978</v>
+        <v>0.0267280341753236</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -3840,19 +3840,19 @@
         <v>4011</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1029</v>
+        <v>997</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10107</v>
+        <v>9963</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005632349762805989</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001445363568605562</v>
+        <v>0.001399499451555112</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01419296950279842</v>
+        <v>0.01399142597374156</v>
       </c>
     </row>
     <row r="20">
@@ -3882,19 +3882,19 @@
         <v>373751</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>367699</v>
+        <v>367665</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>376742</v>
+        <v>376781</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.989382862254673</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9733626766222901</v>
+        <v>0.9732719658246765</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9972989588642954</v>
+        <v>0.9974022646942694</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>675</v>
@@ -3903,19 +3903,19 @@
         <v>708081</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>701985</v>
+        <v>702129</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>711063</v>
+        <v>711095</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.994367650237194</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9858070304972015</v>
+        <v>0.9860085740262572</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9985546364313944</v>
+        <v>0.9986005005484446</v>
       </c>
     </row>
     <row r="21">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7592</v>
+        <v>7123</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008732903709355127</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02953962740144433</v>
+        <v>0.02771767065134008</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -4028,19 +4028,19 @@
         <v>13267</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6205</v>
+        <v>6387</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23434</v>
+        <v>23690</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03315357705632609</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01550583518817308</v>
+        <v>0.01595983994804442</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0585614485660438</v>
+        <v>0.05919905658971991</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -4049,19 +4049,19 @@
         <v>15511</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8256</v>
+        <v>7519</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25348</v>
+        <v>26527</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02360339539763127</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01256228151236984</v>
+        <v>0.01144161443187182</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03857141167093942</v>
+        <v>0.04036540071444712</v>
       </c>
     </row>
     <row r="23">
@@ -4078,7 +4078,7 @@
         <v>254754</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>249406</v>
+        <v>249875</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>256998</v>
@@ -4087,7 +4087,7 @@
         <v>0.9912670962906449</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9704603725985557</v>
+        <v>0.9722823293486599</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4099,19 +4099,19 @@
         <v>386902</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>376735</v>
+        <v>376479</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>393964</v>
+        <v>393782</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.966846422943674</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9414385514339562</v>
+        <v>0.9408009434102801</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9844941648118268</v>
+        <v>0.9840401600519556</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>591</v>
@@ -4120,19 +4120,19 @@
         <v>641656</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>631819</v>
+        <v>630640</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>648911</v>
+        <v>649648</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9763966046023688</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9614285883290606</v>
+        <v>0.9596345992855529</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9874377184876302</v>
+        <v>0.9885583855681283</v>
       </c>
     </row>
     <row r="24">
@@ -4224,19 +4224,19 @@
         <v>25404</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17168</v>
+        <v>16401</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40460</v>
+        <v>37849</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007484160799560098</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005057787189995538</v>
+        <v>0.004831916553130595</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0119197634179513</v>
+        <v>0.01115060755382072</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -4245,19 +4245,19 @@
         <v>55732</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>41524</v>
+        <v>43607</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70868</v>
+        <v>73194</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01572341010108616</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01171504251386044</v>
+        <v>0.01230261987426657</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01999355660025848</v>
+        <v>0.02064989994676948</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -4266,19 +4266,19 @@
         <v>81136</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>64091</v>
+        <v>63945</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>100679</v>
+        <v>103998</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01169295432876829</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00923644287614676</v>
+        <v>0.009215489114871038</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01450939568265995</v>
+        <v>0.01498774779849737</v>
       </c>
     </row>
     <row r="26">
@@ -4295,19 +4295,19 @@
         <v>3368946</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3353890</v>
+        <v>3356501</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3377182</v>
+        <v>3377949</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.99251583920044</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9880802365820486</v>
+        <v>0.9888493924461791</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9949422128100044</v>
+        <v>0.9951680834468694</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3287</v>
@@ -4316,19 +4316,19 @@
         <v>3488810</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3473674</v>
+        <v>3471348</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3503018</v>
+        <v>3500935</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9842765898989139</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9800064433997416</v>
+        <v>0.9793501000532305</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9882849574861396</v>
+        <v>0.9876973801257335</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6496</v>
@@ -4337,19 +4337,19 @@
         <v>6857756</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6838213</v>
+        <v>6834894</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6874801</v>
+        <v>6874947</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9883070456712317</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.98549060431734</v>
+        <v>0.9850122522015023</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9907635571238531</v>
+        <v>0.9907845108851288</v>
       </c>
     </row>
     <row r="27">
